--- a/Base/Teams/Bengals/Distributions.xlsx
+++ b/Base/Teams/Bengals/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(3.39376019851539, 1.853705146976531, -2.0589747867618193, 2.580132642992327)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2224622282410138, 1.1157320824474029, 3.063097692294515, 4.4944933387872865)</t>
-  </si>
-  <si>
-    <t>NIG(0.7219332380205115, 0.5449182375304233, 1.1042882588130187, 2.8122117448709254)</t>
-  </si>
-  <si>
-    <t>NIG(1.544965175138394, 1.1855344176097962, 3.423494392643353, 6.175647145257245)</t>
+    <t>JSU(-1.029969539563001, 1.2933141042731946, 0.13631759066352356, 3.434090680999769)</t>
+  </si>
+  <si>
+    <t>JSU(-1.2474500170971483, 1.1484710786502483, 3.0598936084929917, 4.673528819582653)</t>
+  </si>
+  <si>
+    <t>NIG(0.7441724452235371, 0.5502857929737022, 1.125292948650341, 2.869207629390771)</t>
+  </si>
+  <si>
+    <t>NIG(1.3198970150049356, 1.0169418221737487, 3.7037682312695086, 6.000799517282518)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Bengals/Distributions.xlsx
+++ b/Base/Teams/Bengals/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-1.029969539563001, 1.2933141042731946, 0.13631759066352356, 3.434090680999769)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2474500170971483, 1.1484710786502483, 3.0598936084929917, 4.673528819582653)</t>
-  </si>
-  <si>
-    <t>NIG(0.7441724452235371, 0.5502857929737022, 1.125292948650341, 2.869207629390771)</t>
-  </si>
-  <si>
-    <t>NIG(1.3198970150049356, 1.0169418221737487, 3.7037682312695086, 6.000799517282518)</t>
+    <t>NCT(3.3693521517586755, 1.6592021395484187, -1.546351642382673, 2.614870506703698)</t>
+  </si>
+  <si>
+    <t>JSU(-1.2578714585130992, 1.193165094177969, 2.960283936233231, 5.153206108507694)</t>
+  </si>
+  <si>
+    <t>NIG(0.7160223505976502, 0.530703991212947, 1.1795464246861718, 2.810590625915288)</t>
+  </si>
+  <si>
+    <t>JSU(-1.3560890004458988, 1.3008065720638309, 1.695757897553844, 5.551220762467031)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Bengals/Distributions.xlsx
+++ b/Base/Teams/Bengals/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(3.3693521517586755, 1.6592021395484187, -1.546351642382673, 2.614870506703698)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2578714585130992, 1.193165094177969, 2.960283936233231, 5.153206108507694)</t>
-  </si>
-  <si>
-    <t>NIG(0.7160223505976502, 0.530703991212947, 1.1795464246861718, 2.810590625915288)</t>
-  </si>
-  <si>
-    <t>JSU(-1.3560890004458988, 1.3008065720638309, 1.695757897553844, 5.551220762467031)</t>
+    <t>JSU(-1.0066958374324755, 1.241785817101409, 0.3137894063765676, 3.1100811202262877)</t>
+  </si>
+  <si>
+    <t>JSU(-1.4735914259337846, 1.2046027778305293, 1.8890185999045197, 4.773950464883239)</t>
+  </si>
+  <si>
+    <t>JSU(-0.7685359356992993, 1.0473209131217454, 0.7831275714411181, 2.59247617602525)</t>
+  </si>
+  <si>
+    <t>NIG(1.7211183075137435, 1.3220733869818715, 3.092571613984099, 6.512405539854512)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Bengals/Distributions.xlsx
+++ b/Base/Teams/Bengals/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-1.0066958374324755, 1.241785817101409, 0.3137894063765676, 3.1100811202262877)</t>
-  </si>
-  <si>
-    <t>JSU(-1.4735914259337846, 1.2046027778305293, 1.8890185999045197, 4.773950464883239)</t>
-  </si>
-  <si>
-    <t>JSU(-0.7685359356992993, 1.0473209131217454, 0.7831275714411181, 2.59247617602525)</t>
-  </si>
-  <si>
-    <t>NIG(1.7211183075137435, 1.3220733869818715, 3.092571613984099, 6.512405539854512)</t>
+    <t>JSU(-1.0049686186707034, 1.2403050310127643, 0.3427709853979849, 3.0544146098810216)</t>
+  </si>
+  <si>
+    <t>JSU(-1.4574060114848337, 1.1305676093944697, 2.054772917862269, 4.245666484153441)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8394915002860953, 1.0499210393966387, 0.637609969180015, 2.598650886635727)</t>
+  </si>
+  <si>
+    <t>NIG(1.5981080917869037, 1.2579251679529966, 3.0970105522520885, 6.070250695725709)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Bengals/Distributions.xlsx
+++ b/Base/Teams/Bengals/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-1.0049686186707034, 1.2403050310127643, 0.3427709853979849, 3.0544146098810216)</t>
-  </si>
-  <si>
-    <t>JSU(-1.4574060114848337, 1.1305676093944697, 2.054772917862269, 4.245666484153441)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8394915002860953, 1.0499210393966387, 0.637609969180015, 2.598650886635727)</t>
-  </si>
-  <si>
-    <t>NIG(1.5981080917869037, 1.2579251679529966, 3.0970105522520885, 6.070250695725709)</t>
+    <t>JSU(-0.9864338597395088, 1.245588010707412, 0.40536836597547543, 3.053132205246711)</t>
+  </si>
+  <si>
+    <t>JSU(-1.4100491586375785, 1.1222653704126113, 2.2836597953585382, 4.226987444184161)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8550901958369866, 1.0256934614109272, 0.6185473699817055, 2.5104263931726782)</t>
+  </si>
+  <si>
+    <t>NIG(1.5674637610467492, 1.219358000981356, 3.3502065664215674, 6.015672316119565)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Bengals/Distributions.xlsx
+++ b/Base/Teams/Bengals/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.9864338597395088, 1.245588010707412, 0.40536836597547543, 3.053132205246711)</t>
-  </si>
-  <si>
-    <t>JSU(-1.4100491586375785, 1.1222653704126113, 2.2836597953585382, 4.226987444184161)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8550901958369866, 1.0256934614109272, 0.6185473699817055, 2.5104263931726782)</t>
-  </si>
-  <si>
-    <t>NIG(1.5674637610467492, 1.219358000981356, 3.3502065664215674, 6.015672316119565)</t>
+    <t>JSU(-1.0031744077509557, 1.252230448246237, 0.31518458944580485, 3.08106302114634)</t>
+  </si>
+  <si>
+    <t>JSU(-1.4129619153440953, 1.1160040177193418, 2.3470392309861445, 4.137621400023746)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8783791409560409, 1.0369608873767402, 0.5718472633795239, 2.550528342763366)</t>
+  </si>
+  <si>
+    <t>NIG(1.5810429003730713, 1.250772096908582, 3.251317475695074, 5.936769123514924)</t>
   </si>
 </sst>
 </file>
